--- a/需求分析/系统分析/用例文档/客户用例.xlsx
+++ b/需求分析/系统分析/用例文档/客户用例.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="收货地址" sheetId="2" r:id="rId2"/>
+    <sheet name="商城" sheetId="3" r:id="rId3"/>
+    <sheet name="其他" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>名称</t>
   </si>
@@ -85,6 +86,150 @@
   </si>
   <si>
     <t>确认签收</t>
+  </si>
+  <si>
+    <t>客户收到商品之后确认签收订单</t>
+  </si>
+  <si>
+    <t>订单是已经发货的状态</t>
+  </si>
+  <si>
+    <t>根据付款方式，订单变成对应的状态</t>
+  </si>
+  <si>
+    <t>付款方式为月结跟到付时，订单状态变成待财务审批；
+付款方式为转账时，订单状态变为交易成功；
+订单状态改变时需要通知相关人员订单状态发生变动</t>
+  </si>
+  <si>
+    <t>申请退款</t>
+  </si>
+  <si>
+    <t>客户申请退款，开启退款流程</t>
+  </si>
+  <si>
+    <t>订单已经生成</t>
+  </si>
+  <si>
+    <t>订单状态变成退款状态，开启退款流程</t>
+  </si>
+  <si>
+    <t>订单状态改变时需要通知相关人员订单状态发生变动
+订单状态变成等待退款审批，通知发送到此订单的跟单员处进行审批</t>
+  </si>
+  <si>
+    <t>取消退款</t>
+  </si>
+  <si>
+    <t>客户取消退款，订单恢复到原先正常状态</t>
+  </si>
+  <si>
+    <t>订单状态为退款待跟单员审批</t>
+  </si>
+  <si>
+    <t>订单恢复到原先正常状态</t>
+  </si>
+  <si>
+    <t>订单状态改变时需要通知相关人员订单状态发生变动</t>
+  </si>
+  <si>
+    <t>联系跟单员</t>
+  </si>
+  <si>
+    <t>客户联系相关的跟单人员</t>
+  </si>
+  <si>
+    <t>客户已建账</t>
+  </si>
+  <si>
+    <t>客户与跟单建立聊天</t>
+  </si>
+  <si>
+    <t>客户在对订单上有疑问时可以联系与他对接的跟单人员来进行咨询</t>
+  </si>
+  <si>
+    <t>查看收货地址</t>
+  </si>
+  <si>
+    <t>查看自己已有的收货地址</t>
+  </si>
+  <si>
+    <t>获得到地址信息</t>
+  </si>
+  <si>
+    <t>添加收货地址</t>
+  </si>
+  <si>
+    <t>添加收货人姓名，联系电话和收货地址</t>
+  </si>
+  <si>
+    <t>添加到收货地址列表</t>
+  </si>
+  <si>
+    <t>客户的收货地址在购物时使用</t>
+  </si>
+  <si>
+    <t>更新收货地址</t>
+  </si>
+  <si>
+    <t>对已添加的收货地址进行修改</t>
+  </si>
+  <si>
+    <t>已添加收货地址</t>
+  </si>
+  <si>
+    <t>指定的收货地址信息变更</t>
+  </si>
+  <si>
+    <t>收货地址发生改变，使用该收货地址的订单不会跟着发生改变</t>
+  </si>
+  <si>
+    <t>删除收货地址</t>
+  </si>
+  <si>
+    <t>删除已有的收货地址</t>
+  </si>
+  <si>
+    <t>收货地址信息被删除</t>
+  </si>
+  <si>
+    <t>浏览商品</t>
+  </si>
+  <si>
+    <t>浏览团队内已经发布的商品</t>
+  </si>
+  <si>
+    <t>获得到商品列表</t>
+  </si>
+  <si>
+    <t>可以根据商品类型进行筛选，类型筛选可以筛选出所有子分类的商品，根据商品名称进行搜索</t>
+  </si>
+  <si>
+    <t>加入购物车</t>
+  </si>
+  <si>
+    <t>客户将希望购买的商品加入到购物车里存放</t>
+  </si>
+  <si>
+    <t>购物车商品列表增加</t>
+  </si>
+  <si>
+    <t>修改购物车商品</t>
+  </si>
+  <si>
+    <t>客户修改购物车内的商品数量</t>
+  </si>
+  <si>
+    <t>购物车商品数量更改</t>
+  </si>
+  <si>
+    <t>联系业务员</t>
+  </si>
+  <si>
+    <t>客户联系相关的业务人员</t>
+  </si>
+  <si>
+    <t>客户与跟业务员建立聊天</t>
   </si>
 </sst>
 </file>
@@ -92,12 +237,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +278,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,6 +434,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,6 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,18 +488,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,30 +542,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,43 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,148 +715,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,20 +864,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1089,206 +1227,352 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1301,14 +1585,207 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1318,16 +1795,222 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>